--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
   <si>
     <t>Doi</t>
   </si>
@@ -180,6 +180,17 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,   Daniel F.%Mackay%null%1,   Frederick%Ho%null%1,   Carlos A.%Celis-Morales%null%1,   Srinivasa Vittal%Katikireddi%null%1,   Claire L.%Niedzwiedz%null%1,   Bhautesh D.%Jani%null%1,   Paul%Welsh%null%1,   Frances S.%Mair%null%1,   Stuart R.%Gray%null%1,   Catherine A.%O’Donnell%null%1,   Jason MR.%Gill%null%1,   Naveed%Sattar%null%0,   Jill P.%Pell%null%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO declared SARS-CoV-2 a global pandemic.
+ The present aim was to propose an hypothesis that there is a potential association between mean levels of vitamin D in various countries with cases and mortality caused by COVID-19. The mean levels of vitamin D for 20 European countries and morbidity and mortality caused by COVID-19 were acquired.
+ Negative correlations between mean levels of vitamin D (average 56 mmol/L, STDEV 10.61) in each country and the number of COVID-19 cases/1 M (mean 295.95, STDEV 298.7, and mortality/1 M (mean 5.96, STDEV 15.13) were observed.
+ Vitamin D levels are severely low in the aging population especially in Spain, Italy and Switzerland.
+ This is also the most vulnerable group of the population in relation to COVID-19. It should be advisable to perform dedicated studies about vitamin D levels in COVID-19 patients with different degrees of disease severity.
+</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,   Simina%Stefanescu%NULL%1,   Lee%Smith%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -580,10 +591,10 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>Doi</t>
   </si>
@@ -180,17 +180,6 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,   Daniel F.%Mackay%null%1,   Frederick%Ho%null%1,   Carlos A.%Celis-Morales%null%1,   Srinivasa Vittal%Katikireddi%null%1,   Claire L.%Niedzwiedz%null%1,   Bhautesh D.%Jani%null%1,   Paul%Welsh%null%1,   Frances S.%Mair%null%1,   Stuart R.%Gray%null%1,   Catherine A.%O’Donnell%null%1,   Jason MR.%Gill%null%1,   Naveed%Sattar%null%0,   Jill P.%Pell%null%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO declared SARS-CoV-2 a global pandemic.
- The present aim was to propose an hypothesis that there is a potential association between mean levels of vitamin D in various countries with cases and mortality caused by COVID-19. The mean levels of vitamin D for 20 European countries and morbidity and mortality caused by COVID-19 were acquired.
- Negative correlations between mean levels of vitamin D (average 56 mmol/L, STDEV 10.61) in each country and the number of COVID-19 cases/1 M (mean 295.95, STDEV 298.7, and mortality/1 M (mean 5.96, STDEV 15.13) were observed.
- Vitamin D levels are severely low in the aging population especially in Spain, Italy and Switzerland.
- This is also the most vulnerable group of the population in relation to COVID-19. It should be advisable to perform dedicated studies about vitamin D levels in COVID-19 patients with different degrees of disease severity.
-</t>
-  </si>
-  <si>
-    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,   Simina%Stefanescu%NULL%1,   Lee%Smith%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -591,10 +580,10 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
   <si>
     <t>Doi</t>
   </si>
@@ -180,6 +180,30 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,   Daniel F.%Mackay%null%1,   Frederick%Ho%null%1,   Carlos A.%Celis-Morales%null%1,   Srinivasa Vittal%Katikireddi%null%1,   Claire L.%Niedzwiedz%null%1,   Bhautesh D.%Jani%null%1,   Paul%Welsh%null%1,   Frances S.%Mair%null%1,   Stuart R.%Gray%null%1,   Catherine A.%O’Donnell%null%1,   Jason MR.%Gill%null%1,   Naveed%Sattar%null%0,   Jill P.%Pell%null%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,   Emanuele%Cereda%e.cereda@smatteo.pv.it%2,   Emanuele%Cereda%e.cereda@smatteo.pv.it%0,   Michela%Barichella%NULL%2,   Michela%Barichella%NULL%0,   Erica%Cassani%NULL%1,   Valentina%Ferri%NULL%1,   Anna Lena%Zecchinelli%NULL%1,   Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,   Valeria%Avataneo%NULL%2,   Valeria%Avataneo%NULL%0,   Alessandra%Manca%NULL%1,   Jessica%Cusato%NULL%1,   Amedeo%De Nicolò%NULL%2,   Amedeo%De Nicolò%NULL%0,   Renzo%Lucchini%NULL%1,   Franco%Keller%NULL%1,   Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,   Simina%Stefanescu%NULL%1,   Lee%Smith%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%2,    Daniel F.%Mackay%null%1,    Frederick%Ho%null%1,    Carlos A.%Celis-Morales%null%1,    Srinivasa Vittal%Katikireddi%null%1,    Claire L.%Niedzwiedz%null%1,    Bhautesh D.%Jani%null%1,    Paul%Welsh%null%1,    Frances S.%Mair%null%1,    Stuart R.%Gray%null%1,    Catherine A.%O’Donnell%null%1,    Jason MR.%Gill%null%1,    Naveed%Sattar%null%0,    Jill P.%Pell%null%1,  Claire E.%Hastie%null%0,  Daniel F.%Mackay%null%1,  Frederick%Ho%null%1,  Carlos A.%Celis-Morales%null%1,  Srinivasa Vittal%Katikireddi%null%1,  Claire L.%Niedzwiedz%null%1,  Bhautesh D.%Jani%null%1,  Paul%Welsh%null%1,  Frances S.%Mair%null%1,  Stuart R.%Gray%null%1,  Catherine A.%O’Donnell%null%1,  Jason MR.%Gill%null%1,  Naveed%Sattar%null%1,  Jill P.%Pell%null%1]</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -516,6 +540,9 @@
       <c r="H1" t="s">
         <v>17</v>
       </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -531,7 +558,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -541,6 +568,9 @@
       </c>
       <c r="H2" t="s">
         <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -557,7 +587,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -567,6 +597,9 @@
       </c>
       <c r="H3" t="s">
         <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -583,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -593,6 +626,9 @@
       </c>
       <c r="H4" t="s">
         <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -609,7 +645,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -619,6 +655,9 @@
       </c>
       <c r="H5" t="s">
         <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="68">
   <si>
     <t>Doi</t>
   </si>
@@ -204,6 +204,54 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,    Emanuele%Cereda%e.cereda@smatteo.pv.it%2,    Emanuele%Cereda%e.cereda@smatteo.pv.it%0,    Michela%Barichella%NULL%2,    Michela%Barichella%NULL%0,    Erica%Cassani%NULL%1,    Valentina%Ferri%NULL%1,    Anna Lena%Zecchinelli%NULL%1,    Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,    Valeria%Avataneo%NULL%2,    Valeria%Avataneo%NULL%0,    Alessandra%Manca%NULL%1,    Jessica%Cusato%NULL%1,    Amedeo%De Nicolò%NULL%2,    Amedeo%De Nicolò%NULL%0,    Renzo%Lucchini%NULL%1,    Franco%Keller%NULL%1,    Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,    Simina%Stefanescu%NULL%1,    Lee%Smith%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,     Daniel F.%Mackay%null%1,     Frederick%Ho%null%1,     Carlos A.%Celis-Morales%null%1,     Srinivasa Vittal%Katikireddi%null%1,     Claire L.%Niedzwiedz%null%1,     Bhautesh D.%Jani%null%1,     Paul%Welsh%null%1,     Frances S.%Mair%null%1,     Stuart R.%Gray%null%1,     Catherine A.%O’Donnell%null%1,     Jason MR.%Gill%null%1,     Naveed%Sattar%null%0,     Jill P.%Pell%null%1,   Claire E.%Hastie%null%1,   Daniel F.%Mackay%null%1,   Frederick%Ho%null%1,   Carlos A.%Celis-Morales%null%1,   Srinivasa Vittal%Katikireddi%null%1,   Claire L.%Niedzwiedz%null%1,   Bhautesh D.%Jani%null%1,   Paul%Welsh%null%1,   Frances S.%Mair%null%1,   Stuart R.%Gray%null%1,   Catherine A.%O’Donnell%null%1,   Jason MR.%Gill%null%1,   Naveed%Sattar%null%1,   Jill P.%Pell%null%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,     Emanuele%Cereda%e.cereda@smatteo.pv.it%2,     Emanuele%Cereda%e.cereda@smatteo.pv.it%0,     Michela%Barichella%NULL%2,     Michela%Barichella%NULL%0,     Erica%Cassani%NULL%1,     Valentina%Ferri%NULL%1,     Anna Lena%Zecchinelli%NULL%1,     Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,     Valeria%Avataneo%NULL%2,     Valeria%Avataneo%NULL%0,     Alessandra%Manca%NULL%1,     Jessica%Cusato%NULL%1,     Amedeo%De Nicolò%NULL%2,     Amedeo%De Nicolò%NULL%0,     Renzo%Lucchini%NULL%1,     Franco%Keller%NULL%1,     Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,     Simina%Stefanescu%NULL%1,     Lee%Smith%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,      Daniel F.%Mackay%null%1,      Frederick%Ho%null%1,      Carlos A.%Celis-Morales%null%1,      Srinivasa Vittal%Katikireddi%null%1,      Claire L.%Niedzwiedz%null%1,      Bhautesh D.%Jani%null%1,      Paul%Welsh%null%1,      Frances S.%Mair%null%1,      Stuart R.%Gray%null%1,      Catherine A.%O’Donnell%null%1,      Jason MR.%Gill%null%1,      Naveed%Sattar%null%0,      Jill P.%Pell%null%1,    Claire E.%Hastie%null%1,    Daniel F.%Mackay%null%1,    Frederick%Ho%null%1,    Carlos A.%Celis-Morales%null%1,    Srinivasa Vittal%Katikireddi%null%1,    Claire L.%Niedzwiedz%null%1,    Bhautesh D.%Jani%null%1,    Paul%Welsh%null%1,    Frances S.%Mair%null%1,    Stuart R.%Gray%null%1,    Catherine A.%O’Donnell%null%1,    Jason MR.%Gill%null%1,    Naveed%Sattar%null%1,    Jill P.%Pell%null%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,      Emanuele%Cereda%e.cereda@smatteo.pv.it%2,      Emanuele%Cereda%e.cereda@smatteo.pv.it%0,      Michela%Barichella%NULL%2,      Michela%Barichella%NULL%0,      Erica%Cassani%NULL%1,      Valentina%Ferri%NULL%1,      Anna Lena%Zecchinelli%NULL%1,      Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,      Valeria%Avataneo%NULL%2,      Valeria%Avataneo%NULL%0,      Alessandra%Manca%NULL%1,      Jessica%Cusato%NULL%1,      Amedeo%De Nicolò%NULL%2,      Amedeo%De Nicolò%NULL%0,      Renzo%Lucchini%NULL%1,      Franco%Keller%NULL%1,      Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,      Simina%Stefanescu%NULL%1,      Lee%Smith%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,       Daniel F.%Mackay%null%1,       Frederick%Ho%null%1,       Carlos A.%Celis-Morales%null%1,       Srinivasa Vittal%Katikireddi%null%1,       Claire L.%Niedzwiedz%null%1,       Bhautesh D.%Jani%null%1,       Paul%Welsh%null%1,       Frances S.%Mair%null%1,       Stuart R.%Gray%null%1,       Catherine A.%O’Donnell%null%1,       Jason MR.%Gill%null%1,       Naveed%Sattar%null%0,       Jill P.%Pell%null%1,     Claire E.%Hastie%null%1,     Daniel F.%Mackay%null%1,     Frederick%Ho%null%1,     Carlos A.%Celis-Morales%null%1,     Srinivasa Vittal%Katikireddi%null%1,     Claire L.%Niedzwiedz%null%1,     Bhautesh D.%Jani%null%1,     Paul%Welsh%null%1,     Frances S.%Mair%null%1,     Stuart R.%Gray%null%1,     Catherine A.%O’Donnell%null%1,     Jason MR.%Gill%null%1,     Naveed%Sattar%null%1,     Jill P.%Pell%null%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,       Emanuele%Cereda%e.cereda@smatteo.pv.it%2,       Emanuele%Cereda%e.cereda@smatteo.pv.it%0,       Michela%Barichella%NULL%2,       Michela%Barichella%NULL%0,       Erica%Cassani%NULL%1,       Valentina%Ferri%NULL%1,       Anna Lena%Zecchinelli%NULL%1,       Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,       Valeria%Avataneo%NULL%2,       Valeria%Avataneo%NULL%0,       Alessandra%Manca%NULL%1,       Jessica%Cusato%NULL%1,       Amedeo%De Nicolò%NULL%2,       Amedeo%De Nicolò%NULL%0,       Renzo%Lucchini%NULL%1,       Franco%Keller%NULL%1,       Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,       Simina%Stefanescu%NULL%1,       Lee%Smith%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,        Daniel F.%Mackay%null%1,        Frederick%Ho%null%1,        Carlos A.%Celis-Morales%null%1,        Srinivasa Vittal%Katikireddi%null%1,        Claire L.%Niedzwiedz%null%1,        Bhautesh D.%Jani%null%1,        Paul%Welsh%null%1,        Frances S.%Mair%null%1,        Stuart R.%Gray%null%1,        Catherine A.%O’Donnell%null%1,        Jason MR.%Gill%null%1,        Naveed%Sattar%null%0,        Jill P.%Pell%null%1,      Claire E.%Hastie%null%1,      Daniel F.%Mackay%null%1,      Frederick%Ho%null%1,      Carlos A.%Celis-Morales%null%1,      Srinivasa Vittal%Katikireddi%null%1,      Claire L.%Niedzwiedz%null%1,      Bhautesh D.%Jani%null%1,      Paul%Welsh%null%1,      Frances S.%Mair%null%1,      Stuart R.%Gray%null%1,      Catherine A.%O’Donnell%null%1,      Jason MR.%Gill%null%1,      Naveed%Sattar%null%1,      Jill P.%Pell%null%1]</t>
   </si>
 </sst>
 </file>
@@ -558,7 +606,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -587,7 +635,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -616,7 +664,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -645,7 +693,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="76">
   <si>
     <t>Doi</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,        Daniel F.%Mackay%null%1,        Frederick%Ho%null%1,        Carlos A.%Celis-Morales%null%1,        Srinivasa Vittal%Katikireddi%null%1,        Claire L.%Niedzwiedz%null%1,        Bhautesh D.%Jani%null%1,        Paul%Welsh%null%1,        Frances S.%Mair%null%1,        Stuart R.%Gray%null%1,        Catherine A.%O’Donnell%null%1,        Jason MR.%Gill%null%1,        Naveed%Sattar%null%0,        Jill P.%Pell%null%1,      Claire E.%Hastie%null%1,      Daniel F.%Mackay%null%1,      Frederick%Ho%null%1,      Carlos A.%Celis-Morales%null%1,      Srinivasa Vittal%Katikireddi%null%1,      Claire L.%Niedzwiedz%null%1,      Bhautesh D.%Jani%null%1,      Paul%Welsh%null%1,      Frances S.%Mair%null%1,      Stuart R.%Gray%null%1,      Catherine A.%O’Donnell%null%1,      Jason MR.%Gill%null%1,      Naveed%Sattar%null%1,      Jill P.%Pell%null%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,        Emanuele%Cereda%e.cereda@smatteo.pv.it%2,        Emanuele%Cereda%e.cereda@smatteo.pv.it%0,        Michela%Barichella%NULL%2,        Michela%Barichella%NULL%0,        Erica%Cassani%NULL%1,        Valentina%Ferri%NULL%1,        Anna Lena%Zecchinelli%NULL%1,        Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,        Valeria%Avataneo%NULL%2,        Valeria%Avataneo%NULL%0,        Alessandra%Manca%NULL%1,        Jessica%Cusato%NULL%1,        Amedeo%De Nicolò%NULL%2,        Amedeo%De Nicolò%NULL%0,        Renzo%Lucchini%NULL%1,        Franco%Keller%NULL%1,        Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,        Simina%Stefanescu%NULL%1,        Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,         Daniel F.%Mackay%null%1,         Frederick%Ho%null%1,         Carlos A.%Celis-Morales%null%1,         Srinivasa Vittal%Katikireddi%null%1,         Claire L.%Niedzwiedz%null%1,         Bhautesh D.%Jani%null%1,         Paul%Welsh%null%1,         Frances S.%Mair%null%1,         Stuart R.%Gray%null%1,         Catherine A.%O’Donnell%null%1,         Jason MR.%Gill%null%1,         Naveed%Sattar%null%1,         Jill P.%Pell%null%1,       Claire E.%Hastie%null%1,       Daniel F.%Mackay%null%1,       Frederick%Ho%null%1,       Carlos A.%Celis-Morales%null%1,       Srinivasa Vittal%Katikireddi%null%1,       Claire L.%Niedzwiedz%null%1,       Bhautesh D.%Jani%null%1,       Paul%Welsh%null%0,       Frances S.%Mair%null%0,       Stuart R.%Gray%null%1,       Catherine A.%O’Donnell%null%0,       Jason MR.%Gill%null%1,       Naveed%Sattar%null%0,       Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,         Emanuele%Cereda%e.cereda@smatteo.pv.it%2,         Emanuele%Cereda%e.cereda@smatteo.pv.it%0,         Michela%Barichella%NULL%2,         Michela%Barichella%NULL%0,         Erica%Cassani%NULL%1,         Valentina%Ferri%NULL%1,         Anna Lena%Zecchinelli%NULL%1,         Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,         Valeria%Avataneo%NULL%2,         Valeria%Avataneo%NULL%0,         Alessandra%Manca%NULL%1,         Jessica%Cusato%NULL%1,         Amedeo%De Nicolò%NULL%2,         Amedeo%De Nicolò%NULL%0,         Renzo%Lucchini%NULL%1,         Franco%Keller%NULL%1,         Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,         Simina%Stefanescu%NULL%1,         Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,          Daniel F.%Mackay%null%1,          Frederick%Ho%null%1,          Carlos A.%Celis-Morales%null%1,          Srinivasa Vittal%Katikireddi%null%1,          Claire L.%Niedzwiedz%null%1,          Bhautesh D.%Jani%null%1,          Paul%Welsh%null%1,          Frances S.%Mair%null%1,          Stuart R.%Gray%null%1,          Catherine A.%O’Donnell%null%1,          Jason MR.%Gill%null%1,          Naveed%Sattar%null%1,          Jill P.%Pell%null%1,        Claire E.%Hastie%null%1,        Daniel F.%Mackay%null%1,        Frederick%Ho%null%1,        Carlos A.%Celis-Morales%null%1,        Srinivasa Vittal%Katikireddi%null%1,        Claire L.%Niedzwiedz%null%1,        Bhautesh D.%Jani%null%1,        Paul%Welsh%null%0,        Frances S.%Mair%null%0,        Stuart R.%Gray%null%1,        Catherine A.%O’Donnell%null%0,        Jason MR.%Gill%null%1,        Naveed%Sattar%null%0,        Jill P.%Pell%null%0]</t>
   </si>
 </sst>
 </file>
@@ -606,7 +630,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -635,7 +659,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -664,7 +688,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -693,7 +717,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="84">
   <si>
     <t>Doi</t>
   </si>
@@ -276,6 +276,30 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,          Daniel F.%Mackay%null%1,          Frederick%Ho%null%1,          Carlos A.%Celis-Morales%null%1,          Srinivasa Vittal%Katikireddi%null%1,          Claire L.%Niedzwiedz%null%1,          Bhautesh D.%Jani%null%1,          Paul%Welsh%null%1,          Frances S.%Mair%null%1,          Stuart R.%Gray%null%1,          Catherine A.%O’Donnell%null%1,          Jason MR.%Gill%null%1,          Naveed%Sattar%null%1,          Jill P.%Pell%null%1,        Claire E.%Hastie%null%1,        Daniel F.%Mackay%null%1,        Frederick%Ho%null%1,        Carlos A.%Celis-Morales%null%1,        Srinivasa Vittal%Katikireddi%null%1,        Claire L.%Niedzwiedz%null%1,        Bhautesh D.%Jani%null%1,        Paul%Welsh%null%0,        Frances S.%Mair%null%0,        Stuart R.%Gray%null%1,        Catherine A.%O’Donnell%null%0,        Jason MR.%Gill%null%1,        Naveed%Sattar%null%0,        Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,          Emanuele%Cereda%e.cereda@smatteo.pv.it%2,          Emanuele%Cereda%e.cereda@smatteo.pv.it%0,          Michela%Barichella%NULL%2,          Michela%Barichella%NULL%0,          Erica%Cassani%NULL%1,          Valentina%Ferri%NULL%1,          Anna Lena%Zecchinelli%NULL%1,          Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,          Valeria%Avataneo%NULL%2,          Valeria%Avataneo%NULL%0,          Alessandra%Manca%NULL%1,          Jessica%Cusato%NULL%1,          Amedeo%De Nicolò%NULL%2,          Amedeo%De Nicolò%NULL%0,          Renzo%Lucchini%NULL%1,          Franco%Keller%NULL%1,          Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,          Simina%Stefanescu%NULL%1,          Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,           Daniel F.%Mackay%null%1,           Frederick%Ho%null%1,           Carlos A.%Celis-Morales%null%1,           Srinivasa Vittal%Katikireddi%null%1,           Claire L.%Niedzwiedz%null%1,           Bhautesh D.%Jani%null%1,           Paul%Welsh%null%1,           Frances S.%Mair%null%1,           Stuart R.%Gray%null%1,           Catherine A.%O’Donnell%null%1,           Jason MR.%Gill%null%1,           Naveed%Sattar%null%1,           Jill P.%Pell%null%1,         Claire E.%Hastie%null%1,         Daniel F.%Mackay%null%1,         Frederick%Ho%null%1,         Carlos A.%Celis-Morales%null%1,         Srinivasa Vittal%Katikireddi%null%1,         Claire L.%Niedzwiedz%null%1,         Bhautesh D.%Jani%null%1,         Paul%Welsh%null%0,         Frances S.%Mair%null%0,         Stuart R.%Gray%null%1,         Catherine A.%O’Donnell%null%0,         Jason MR.%Gill%null%1,         Naveed%Sattar%null%0,         Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,           Emanuele%Cereda%e.cereda@smatteo.pv.it%2,           Emanuele%Cereda%e.cereda@smatteo.pv.it%0,           Michela%Barichella%NULL%2,           Michela%Barichella%NULL%0,           Erica%Cassani%NULL%1,           Valentina%Ferri%NULL%1,           Anna Lena%Zecchinelli%NULL%1,           Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,           Valeria%Avataneo%NULL%2,           Valeria%Avataneo%NULL%0,           Alessandra%Manca%NULL%1,           Jessica%Cusato%NULL%1,           Amedeo%De Nicolò%NULL%2,           Amedeo%De Nicolò%NULL%0,           Renzo%Lucchini%NULL%1,           Franco%Keller%NULL%1,           Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,           Simina%Stefanescu%NULL%1,           Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,            Daniel F.%Mackay%null%1,            Frederick%Ho%null%1,            Carlos A.%Celis-Morales%null%1,            Srinivasa Vittal%Katikireddi%null%1,            Claire L.%Niedzwiedz%null%1,            Bhautesh D.%Jani%null%1,            Paul%Welsh%null%1,            Frances S.%Mair%null%1,            Stuart R.%Gray%null%1,            Catherine A.%O’Donnell%null%1,            Jason MR.%Gill%null%1,            Naveed%Sattar%null%1,            Jill P.%Pell%null%1,          Claire E.%Hastie%null%1,          Daniel F.%Mackay%null%1,          Frederick%Ho%null%1,          Carlos A.%Celis-Morales%null%1,          Srinivasa Vittal%Katikireddi%null%1,          Claire L.%Niedzwiedz%null%1,          Bhautesh D.%Jani%null%1,          Paul%Welsh%null%0,          Frances S.%Mair%null%0,          Stuart R.%Gray%null%1,          Catherine A.%O’Donnell%null%0,          Jason MR.%Gill%null%1,          Naveed%Sattar%null%0,          Jill P.%Pell%null%0]</t>
   </si>
 </sst>
 </file>
@@ -630,7 +654,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -659,7 +683,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -688,7 +712,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -717,7 +741,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="93">
   <si>
     <t>Doi</t>
   </si>
@@ -300,6 +300,38 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,            Daniel F.%Mackay%null%1,            Frederick%Ho%null%1,            Carlos A.%Celis-Morales%null%1,            Srinivasa Vittal%Katikireddi%null%1,            Claire L.%Niedzwiedz%null%1,            Bhautesh D.%Jani%null%1,            Paul%Welsh%null%1,            Frances S.%Mair%null%1,            Stuart R.%Gray%null%1,            Catherine A.%O’Donnell%null%1,            Jason MR.%Gill%null%1,            Naveed%Sattar%null%1,            Jill P.%Pell%null%1,          Claire E.%Hastie%null%1,          Daniel F.%Mackay%null%1,          Frederick%Ho%null%1,          Carlos A.%Celis-Morales%null%1,          Srinivasa Vittal%Katikireddi%null%1,          Claire L.%Niedzwiedz%null%1,          Bhautesh D.%Jani%null%1,          Paul%Welsh%null%0,          Frances S.%Mair%null%0,          Stuart R.%Gray%null%1,          Catherine A.%O’Donnell%null%0,          Jason MR.%Gill%null%1,          Naveed%Sattar%null%0,          Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,            Emanuele%Cereda%e.cereda@smatteo.pv.it%2,            Emanuele%Cereda%e.cereda@smatteo.pv.it%0,            Michela%Barichella%NULL%2,            Michela%Barichella%NULL%0,            Erica%Cassani%NULL%1,            Valentina%Ferri%NULL%1,            Anna Lena%Zecchinelli%NULL%1,            Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,            Valeria%Avataneo%NULL%2,            Valeria%Avataneo%NULL%0,            Alessandra%Manca%NULL%1,            Jessica%Cusato%NULL%1,            Amedeo%De Nicolò%NULL%2,            Amedeo%De Nicolò%NULL%0,            Renzo%Lucchini%NULL%1,            Franco%Keller%NULL%1,            Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO declared SARS-CoV-2 a global pandemic.
+ The present aim was to propose an hypothesis that there is a potential association between mean levels of vitamin D in various countries with cases and mortality caused by COVID-19. The mean levels of vitamin D for 20 European countries and morbidity and mortality caused by COVID-19 were acquired.
+ Negative correlations between mean levels of vitamin D (average 56 mmol/L, STDEV 10.61) in each country and the number of COVID-19 cases/1 M (mean 295.95, STDEV 298.7, and mortality/1 M (mean 5.96, STDEV 15.13) were observed.
+ Vitamin D levels are severely low in the aging population especially in Spain, Italy and Switzerland.
+ This is also the most vulnerable group of the population in relation to COVID-19. It should be advisable to perform dedicated studies about vitamin D levels in COVID-19 patients with different degrees of disease severity.
+</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,            Simina%Stefanescu%NULL%1,            Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,             Daniel F.%Mackay%null%1,             Frederick%Ho%null%1,             Carlos A.%Celis-Morales%null%1,             Srinivasa Vittal%Katikireddi%null%1,             Claire L.%Niedzwiedz%null%1,             Bhautesh D.%Jani%null%1,             Paul%Welsh%null%1,             Frances S.%Mair%null%1,             Stuart R.%Gray%null%1,             Catherine A.%O’Donnell%null%1,             Jason MR.%Gill%null%1,             Naveed%Sattar%null%1,             Jill P.%Pell%null%1,           Claire E.%Hastie%null%1,           Daniel F.%Mackay%null%1,           Frederick%Ho%null%1,           Carlos A.%Celis-Morales%null%1,           Srinivasa Vittal%Katikireddi%null%1,           Claire L.%Niedzwiedz%null%1,           Bhautesh D.%Jani%null%1,           Paul%Welsh%null%0,           Frances S.%Mair%null%0,           Stuart R.%Gray%null%1,           Catherine A.%O’Donnell%null%0,           Jason MR.%Gill%null%1,           Naveed%Sattar%null%0,           Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,             Emanuele%Cereda%e.cereda@smatteo.pv.it%2,             Emanuele%Cereda%e.cereda@smatteo.pv.it%0,             Michela%Barichella%NULL%2,             Michela%Barichella%NULL%0,             Erica%Cassani%NULL%1,             Valentina%Ferri%NULL%1,             Anna Lena%Zecchinelli%NULL%1,             Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,             Valeria%Avataneo%NULL%2,             Valeria%Avataneo%NULL%0,             Alessandra%Manca%NULL%1,             Jessica%Cusato%NULL%1,             Amedeo%De Nicolò%NULL%2,             Amedeo%De Nicolò%NULL%0,             Renzo%Lucchini%NULL%1,             Franco%Keller%NULL%1,             Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,             Simina%Stefanescu%NULL%1,             Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,              Daniel F.%Mackay%null%1,              Frederick%Ho%null%1,              Carlos A.%Celis-Morales%null%1,              Srinivasa Vittal%Katikireddi%null%1,              Claire L.%Niedzwiedz%null%1,              Bhautesh D.%Jani%null%1,              Paul%Welsh%null%1,              Frances S.%Mair%null%1,              Stuart R.%Gray%null%1,              Catherine A.%O’Donnell%null%1,              Jason MR.%Gill%null%1,              Naveed%Sattar%null%1,              Jill P.%Pell%null%1,            Claire E.%Hastie%null%1,            Daniel F.%Mackay%null%1,            Frederick%Ho%null%1,            Carlos A.%Celis-Morales%null%1,            Srinivasa Vittal%Katikireddi%null%1,            Claire L.%Niedzwiedz%null%1,            Bhautesh D.%Jani%null%1,            Paul%Welsh%null%0,            Frances S.%Mair%null%0,            Stuart R.%Gray%null%1,            Catherine A.%O’Donnell%null%0,            Jason MR.%Gill%null%1,            Naveed%Sattar%null%0,            Jill P.%Pell%null%0]</t>
   </si>
 </sst>
 </file>
@@ -654,7 +686,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -683,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -709,10 +741,10 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -741,7 +773,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="97">
   <si>
     <t>Doi</t>
   </si>
@@ -332,6 +332,18 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,              Daniel F.%Mackay%null%1,              Frederick%Ho%null%1,              Carlos A.%Celis-Morales%null%1,              Srinivasa Vittal%Katikireddi%null%1,              Claire L.%Niedzwiedz%null%1,              Bhautesh D.%Jani%null%1,              Paul%Welsh%null%1,              Frances S.%Mair%null%1,              Stuart R.%Gray%null%1,              Catherine A.%O’Donnell%null%1,              Jason MR.%Gill%null%1,              Naveed%Sattar%null%1,              Jill P.%Pell%null%1,            Claire E.%Hastie%null%1,            Daniel F.%Mackay%null%1,            Frederick%Ho%null%1,            Carlos A.%Celis-Morales%null%1,            Srinivasa Vittal%Katikireddi%null%1,            Claire L.%Niedzwiedz%null%1,            Bhautesh D.%Jani%null%1,            Paul%Welsh%null%0,            Frances S.%Mair%null%0,            Stuart R.%Gray%null%1,            Catherine A.%O’Donnell%null%0,            Jason MR.%Gill%null%1,            Naveed%Sattar%null%0,            Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,              Emanuele%Cereda%e.cereda@smatteo.pv.it%2,              Emanuele%Cereda%e.cereda@smatteo.pv.it%0,              Michela%Barichella%NULL%2,              Michela%Barichella%NULL%0,              Erica%Cassani%NULL%1,              Valentina%Ferri%NULL%1,              Anna Lena%Zecchinelli%NULL%1,              Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,              Valeria%Avataneo%NULL%2,              Valeria%Avataneo%NULL%0,              Alessandra%Manca%NULL%1,              Jessica%Cusato%NULL%1,              Amedeo%De Nicolò%NULL%2,              Amedeo%De Nicolò%NULL%0,              Renzo%Lucchini%NULL%1,              Franco%Keller%NULL%1,              Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,              Simina%Stefanescu%NULL%1,              Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,               Daniel F.%Mackay%null%1,               Frederick%Ho%null%1,               Carlos A.%Celis-Morales%null%1,               Srinivasa Vittal%Katikireddi%null%1,               Claire L.%Niedzwiedz%null%1,               Bhautesh D.%Jani%null%1,               Paul%Welsh%null%1,               Frances S.%Mair%null%1,               Stuart R.%Gray%null%1,               Catherine A.%O’Donnell%null%1,               Jason MR.%Gill%null%1,               Naveed%Sattar%null%1,               Jill P.%Pell%null%1,             Claire E.%Hastie%null%1,             Daniel F.%Mackay%null%1,             Frederick%Ho%null%1,             Carlos A.%Celis-Morales%null%1,             Srinivasa Vittal%Katikireddi%null%1,             Claire L.%Niedzwiedz%null%1,             Bhautesh D.%Jani%null%1,             Paul%Welsh%null%0,             Frances S.%Mair%null%0,             Stuart R.%Gray%null%1,             Catherine A.%O’Donnell%null%0,             Jason MR.%Gill%null%1,             Naveed%Sattar%null%0,             Jill P.%Pell%null%0]</t>
   </si>
 </sst>
 </file>
@@ -686,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -715,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -744,7 +756,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -773,7 +785,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="101">
   <si>
     <t>Doi</t>
   </si>
@@ -344,6 +344,18 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,               Daniel F.%Mackay%null%1,               Frederick%Ho%null%1,               Carlos A.%Celis-Morales%null%1,               Srinivasa Vittal%Katikireddi%null%1,               Claire L.%Niedzwiedz%null%1,               Bhautesh D.%Jani%null%1,               Paul%Welsh%null%1,               Frances S.%Mair%null%1,               Stuart R.%Gray%null%1,               Catherine A.%O’Donnell%null%1,               Jason MR.%Gill%null%1,               Naveed%Sattar%null%1,               Jill P.%Pell%null%1,             Claire E.%Hastie%null%1,             Daniel F.%Mackay%null%1,             Frederick%Ho%null%1,             Carlos A.%Celis-Morales%null%1,             Srinivasa Vittal%Katikireddi%null%1,             Claire L.%Niedzwiedz%null%1,             Bhautesh D.%Jani%null%1,             Paul%Welsh%null%0,             Frances S.%Mair%null%0,             Stuart R.%Gray%null%1,             Catherine A.%O’Donnell%null%0,             Jason MR.%Gill%null%1,             Naveed%Sattar%null%0,             Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,               Emanuele%Cereda%e.cereda@smatteo.pv.it%2,               Emanuele%Cereda%e.cereda@smatteo.pv.it%0,               Michela%Barichella%NULL%2,               Michela%Barichella%NULL%0,               Erica%Cassani%NULL%1,               Valentina%Ferri%NULL%1,               Anna Lena%Zecchinelli%NULL%1,               Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,               Valeria%Avataneo%NULL%2,               Valeria%Avataneo%NULL%0,               Alessandra%Manca%NULL%1,               Jessica%Cusato%NULL%1,               Amedeo%De Nicolò%NULL%2,               Amedeo%De Nicolò%NULL%0,               Renzo%Lucchini%NULL%1,               Franco%Keller%NULL%1,               Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,               Simina%Stefanescu%NULL%1,               Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                Daniel F.%Mackay%null%1,                Frederick%Ho%null%1,                Carlos A.%Celis-Morales%null%1,                Srinivasa Vittal%Katikireddi%null%1,                Claire L.%Niedzwiedz%null%1,                Bhautesh D.%Jani%null%1,                Paul%Welsh%null%1,                Frances S.%Mair%null%1,                Stuart R.%Gray%null%1,                Catherine A.%O’Donnell%null%1,                Jason MR.%Gill%null%1,                Naveed%Sattar%null%1,                Jill P.%Pell%null%1,              Claire E.%Hastie%null%1,              Daniel F.%Mackay%null%1,              Frederick%Ho%null%1,              Carlos A.%Celis-Morales%null%1,              Srinivasa Vittal%Katikireddi%null%1,              Claire L.%Niedzwiedz%null%1,              Bhautesh D.%Jani%null%1,              Paul%Welsh%null%0,              Frances S.%Mair%null%0,              Stuart R.%Gray%null%1,              Catherine A.%O’Donnell%null%0,              Jason MR.%Gill%null%1,              Naveed%Sattar%null%0,              Jill P.%Pell%null%0]</t>
   </si>
 </sst>
 </file>
@@ -698,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -727,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -756,7 +768,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -785,7 +797,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="109">
   <si>
     <t>Doi</t>
   </si>
@@ -356,6 +356,30 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,                Daniel F.%Mackay%null%1,                Frederick%Ho%null%1,                Carlos A.%Celis-Morales%null%1,                Srinivasa Vittal%Katikireddi%null%1,                Claire L.%Niedzwiedz%null%1,                Bhautesh D.%Jani%null%1,                Paul%Welsh%null%1,                Frances S.%Mair%null%1,                Stuart R.%Gray%null%1,                Catherine A.%O’Donnell%null%1,                Jason MR.%Gill%null%1,                Naveed%Sattar%null%1,                Jill P.%Pell%null%1,              Claire E.%Hastie%null%1,              Daniel F.%Mackay%null%1,              Frederick%Ho%null%1,              Carlos A.%Celis-Morales%null%1,              Srinivasa Vittal%Katikireddi%null%1,              Claire L.%Niedzwiedz%null%1,              Bhautesh D.%Jani%null%1,              Paul%Welsh%null%0,              Frances S.%Mair%null%0,              Stuart R.%Gray%null%1,              Catherine A.%O’Donnell%null%0,              Jason MR.%Gill%null%1,              Naveed%Sattar%null%0,              Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                Michela%Barichella%NULL%2,                Michela%Barichella%NULL%0,                Erica%Cassani%NULL%1,                Valentina%Ferri%NULL%1,                Anna Lena%Zecchinelli%NULL%1,                Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                Valeria%Avataneo%NULL%2,                Valeria%Avataneo%NULL%0,                Alessandra%Manca%NULL%1,                Jessica%Cusato%NULL%1,                Amedeo%De Nicolò%NULL%2,                Amedeo%De Nicolò%NULL%0,                Renzo%Lucchini%NULL%1,                Franco%Keller%NULL%1,                Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                Simina%Stefanescu%NULL%1,                Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                 Daniel F.%Mackay%null%1,                 Frederick%Ho%null%1,                 Carlos A.%Celis-Morales%null%1,                 Srinivasa Vittal%Katikireddi%null%1,                 Claire L.%Niedzwiedz%null%1,                 Bhautesh D.%Jani%null%1,                 Paul%Welsh%null%1,                 Frances S.%Mair%null%1,                 Stuart R.%Gray%null%1,                 Catherine A.%O’Donnell%null%1,                 Jason MR.%Gill%null%1,                 Naveed%Sattar%null%1,                 Jill P.%Pell%null%1,               Claire E.%Hastie%null%1,               Daniel F.%Mackay%null%1,               Frederick%Ho%null%1,               Carlos A.%Celis-Morales%null%1,               Srinivasa Vittal%Katikireddi%null%1,               Claire L.%Niedzwiedz%null%1,               Bhautesh D.%Jani%null%1,               Paul%Welsh%null%0,               Frances S.%Mair%null%0,               Stuart R.%Gray%null%1,               Catherine A.%O’Donnell%null%0,               Jason MR.%Gill%null%1,               Naveed%Sattar%null%0,               Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                 Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                 Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                 Michela%Barichella%NULL%2,                 Michela%Barichella%NULL%0,                 Erica%Cassani%NULL%1,                 Valentina%Ferri%NULL%1,                 Anna Lena%Zecchinelli%NULL%1,                 Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                 Valeria%Avataneo%NULL%2,                 Valeria%Avataneo%NULL%0,                 Alessandra%Manca%NULL%1,                 Jessica%Cusato%NULL%1,                 Amedeo%De Nicolò%NULL%2,                 Amedeo%De Nicolò%NULL%0,                 Renzo%Lucchini%NULL%1,                 Franco%Keller%NULL%1,                 Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                 Simina%Stefanescu%NULL%1,                 Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                  Daniel F.%Mackay%null%1,                  Frederick%Ho%null%1,                  Carlos A.%Celis-Morales%null%1,                  Srinivasa Vittal%Katikireddi%null%1,                  Claire L.%Niedzwiedz%null%1,                  Bhautesh D.%Jani%null%1,                  Paul%Welsh%null%1,                  Frances S.%Mair%null%1,                  Stuart R.%Gray%null%1,                  Catherine A.%O’Donnell%null%1,                  Jason MR.%Gill%null%1,                  Naveed%Sattar%null%1,                  Jill P.%Pell%null%1,                Claire E.%Hastie%null%1,                Daniel F.%Mackay%null%1,                Frederick%Ho%null%1,                Carlos A.%Celis-Morales%null%1,                Srinivasa Vittal%Katikireddi%null%1,                Claire L.%Niedzwiedz%null%1,                Bhautesh D.%Jani%null%1,                Paul%Welsh%null%0,                Frances S.%Mair%null%0,                Stuart R.%Gray%null%1,                Catherine A.%O’Donnell%null%0,                Jason MR.%Gill%null%1,                Naveed%Sattar%null%0,                Jill P.%Pell%null%0]</t>
   </si>
 </sst>
 </file>
@@ -710,7 +734,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -739,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -768,7 +792,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -797,7 +821,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="113">
   <si>
     <t>Doi</t>
   </si>
@@ -380,6 +380,18 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,                  Daniel F.%Mackay%null%1,                  Frederick%Ho%null%1,                  Carlos A.%Celis-Morales%null%1,                  Srinivasa Vittal%Katikireddi%null%1,                  Claire L.%Niedzwiedz%null%1,                  Bhautesh D.%Jani%null%1,                  Paul%Welsh%null%1,                  Frances S.%Mair%null%1,                  Stuart R.%Gray%null%1,                  Catherine A.%O’Donnell%null%1,                  Jason MR.%Gill%null%1,                  Naveed%Sattar%null%1,                  Jill P.%Pell%null%1,                Claire E.%Hastie%null%1,                Daniel F.%Mackay%null%1,                Frederick%Ho%null%1,                Carlos A.%Celis-Morales%null%1,                Srinivasa Vittal%Katikireddi%null%1,                Claire L.%Niedzwiedz%null%1,                Bhautesh D.%Jani%null%1,                Paul%Welsh%null%0,                Frances S.%Mair%null%0,                Stuart R.%Gray%null%1,                Catherine A.%O’Donnell%null%0,                Jason MR.%Gill%null%1,                Naveed%Sattar%null%0,                Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                  Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                  Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                  Michela%Barichella%NULL%2,                  Michela%Barichella%NULL%0,                  Erica%Cassani%NULL%1,                  Valentina%Ferri%NULL%1,                  Anna Lena%Zecchinelli%NULL%1,                  Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                  Valeria%Avataneo%NULL%2,                  Valeria%Avataneo%NULL%0,                  Alessandra%Manca%NULL%1,                  Jessica%Cusato%NULL%1,                  Amedeo%De Nicolò%NULL%2,                  Amedeo%De Nicolò%NULL%0,                  Renzo%Lucchini%NULL%1,                  Franco%Keller%NULL%1,                  Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                  Simina%Stefanescu%NULL%1,                  Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                   Daniel F.%Mackay%null%1,                   Frederick%Ho%null%1,                   Carlos A.%Celis-Morales%null%1,                   Srinivasa Vittal%Katikireddi%null%1,                   Claire L.%Niedzwiedz%null%1,                   Bhautesh D.%Jani%null%1,                   Paul%Welsh%null%1,                   Frances S.%Mair%null%1,                   Stuart R.%Gray%null%1,                   Catherine A.%O’Donnell%null%1,                   Jason MR.%Gill%null%1,                   Naveed%Sattar%null%1,                   Jill P.%Pell%null%1,                 Claire E.%Hastie%null%1,                 Daniel F.%Mackay%null%1,                 Frederick%Ho%null%1,                 Carlos A.%Celis-Morales%null%1,                 Srinivasa Vittal%Katikireddi%null%1,                 Claire L.%Niedzwiedz%null%1,                 Bhautesh D.%Jani%null%1,                 Paul%Welsh%null%0,                 Frances S.%Mair%null%0,                 Stuart R.%Gray%null%1,                 Catherine A.%O’Donnell%null%0,                 Jason MR.%Gill%null%1,                 Naveed%Sattar%null%0,                 Jill P.%Pell%null%0]</t>
   </si>
 </sst>
 </file>
@@ -734,7 +746,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -763,7 +775,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -792,7 +804,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -821,7 +833,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="120">
   <si>
     <t>Doi</t>
   </si>
@@ -392,6 +392,27 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,                   Daniel F.%Mackay%null%1,                   Frederick%Ho%null%1,                   Carlos A.%Celis-Morales%null%1,                   Srinivasa Vittal%Katikireddi%null%1,                   Claire L.%Niedzwiedz%null%1,                   Bhautesh D.%Jani%null%1,                   Paul%Welsh%null%1,                   Frances S.%Mair%null%1,                   Stuart R.%Gray%null%1,                   Catherine A.%O’Donnell%null%1,                   Jason MR.%Gill%null%1,                   Naveed%Sattar%null%1,                   Jill P.%Pell%null%1,                 Claire E.%Hastie%null%1,                 Daniel F.%Mackay%null%1,                 Frederick%Ho%null%1,                 Carlos A.%Celis-Morales%null%1,                 Srinivasa Vittal%Katikireddi%null%1,                 Claire L.%Niedzwiedz%null%1,                 Bhautesh D.%Jani%null%1,                 Paul%Welsh%null%0,                 Frances S.%Mair%null%0,                 Stuart R.%Gray%null%1,                 Catherine A.%O’Donnell%null%0,                 Jason MR.%Gill%null%1,                 Naveed%Sattar%null%0,                 Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                   Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                   Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                   Michela%Barichella%NULL%2,                   Michela%Barichella%NULL%0,                   Erica%Cassani%NULL%1,                   Valentina%Ferri%NULL%1,                   Anna Lena%Zecchinelli%NULL%1,                   Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                   Valeria%Avataneo%NULL%2,                   Valeria%Avataneo%NULL%0,                   Alessandra%Manca%NULL%1,                   Jessica%Cusato%NULL%1,                   Amedeo%De Nicolò%NULL%2,                   Amedeo%De Nicolò%NULL%0,                   Renzo%Lucchini%NULL%1,                   Franco%Keller%NULL%1,                   Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                   Simina%Stefanescu%NULL%1,                   Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                    Daniel F.%Mackay%null%1,                    Frederick%Ho%null%1,                    Carlos A.%Celis-Morales%null%1,                    Srinivasa Vittal%Katikireddi%null%1,                    Claire L.%Niedzwiedz%null%1,                    Bhautesh D.%Jani%null%1,                    Paul%Welsh%null%1,                    Frances S.%Mair%null%1,                    Stuart R.%Gray%null%1,                    Catherine A.%O’Donnell%null%1,                    Jason MR.%Gill%null%1,                    Naveed%Sattar%null%1,                    Jill P.%Pell%null%1,                  Claire E.%Hastie%null%1,                  Daniel F.%Mackay%null%1,                  Frederick%Ho%null%1,                  Carlos A.%Celis-Morales%null%1,                  Srinivasa Vittal%Katikireddi%null%1,                  Claire L.%Niedzwiedz%null%1,                  Bhautesh D.%Jani%null%1,                  Paul%Welsh%null%0,                  Frances S.%Mair%null%0,                  Stuart R.%Gray%null%1,                  Catherine A.%O’Donnell%null%0,                  Jason MR.%Gill%null%1,                  Naveed%Sattar%null%0,                  Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -746,7 +767,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -758,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -775,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -787,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -804,7 +825,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -816,7 +837,7 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -833,7 +854,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -845,7 +866,7 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="124">
   <si>
     <t>Doi</t>
   </si>
@@ -413,6 +413,18 @@
   </si>
   <si>
     <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                    Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                    Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                    Michela%Barichella%NULL%2,                    Michela%Barichella%NULL%0,                    Erica%Cassani%NULL%1,                    Valentina%Ferri%NULL%1,                    Anna Lena%Zecchinelli%NULL%1,                    Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                    Valeria%Avataneo%NULL%2,                    Valeria%Avataneo%NULL%0,                    Alessandra%Manca%NULL%1,                    Jessica%Cusato%NULL%1,                    Amedeo%De Nicolò%NULL%2,                    Amedeo%De Nicolò%NULL%0,                    Renzo%Lucchini%NULL%1,                    Franco%Keller%NULL%1,                    Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                    Simina%Stefanescu%NULL%1,                    Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                     Daniel F.%Mackay%null%1,                     Frederick%Ho%null%1,                     Carlos A.%Celis-Morales%null%1,                     Srinivasa Vittal%Katikireddi%null%1,                     Claire L.%Niedzwiedz%null%1,                     Bhautesh D.%Jani%null%1,                     Paul%Welsh%null%1,                     Frances S.%Mair%null%1,                     Stuart R.%Gray%null%1,                     Catherine A.%O’Donnell%null%1,                     Jason MR.%Gill%null%1,                     Naveed%Sattar%null%1,                     Jill P.%Pell%null%1,                   Claire E.%Hastie%null%1,                   Daniel F.%Mackay%null%1,                   Frederick%Ho%null%1,                   Carlos A.%Celis-Morales%null%1,                   Srinivasa Vittal%Katikireddi%null%1,                   Claire L.%Niedzwiedz%null%1,                   Bhautesh D.%Jani%null%1,                   Paul%Welsh%null%0,                   Frances S.%Mair%null%0,                   Stuart R.%Gray%null%1,                   Catherine A.%O’Donnell%null%0,                   Jason MR.%Gill%null%1,                   Naveed%Sattar%null%0,                   Jill P.%Pell%null%0]</t>
   </si>
 </sst>
 </file>
@@ -767,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -796,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -825,7 +837,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -854,7 +866,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="145">
   <si>
     <t>Doi</t>
   </si>
@@ -425,6 +425,69 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,                     Daniel F.%Mackay%null%1,                     Frederick%Ho%null%1,                     Carlos A.%Celis-Morales%null%1,                     Srinivasa Vittal%Katikireddi%null%1,                     Claire L.%Niedzwiedz%null%1,                     Bhautesh D.%Jani%null%1,                     Paul%Welsh%null%1,                     Frances S.%Mair%null%1,                     Stuart R.%Gray%null%1,                     Catherine A.%O’Donnell%null%1,                     Jason MR.%Gill%null%1,                     Naveed%Sattar%null%1,                     Jill P.%Pell%null%1,                   Claire E.%Hastie%null%1,                   Daniel F.%Mackay%null%1,                   Frederick%Ho%null%1,                   Carlos A.%Celis-Morales%null%1,                   Srinivasa Vittal%Katikireddi%null%1,                   Claire L.%Niedzwiedz%null%1,                   Bhautesh D.%Jani%null%1,                   Paul%Welsh%null%0,                   Frances S.%Mair%null%0,                   Stuart R.%Gray%null%1,                   Catherine A.%O’Donnell%null%0,                   Jason MR.%Gill%null%1,                   Naveed%Sattar%null%0,                   Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                     Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                     Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                     Michela%Barichella%NULL%2,                     Michela%Barichella%NULL%0,                     Erica%Cassani%NULL%1,                     Valentina%Ferri%NULL%1,                     Anna Lena%Zecchinelli%NULL%1,                     Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                     Valeria%Avataneo%NULL%2,                     Valeria%Avataneo%NULL%0,                     Alessandra%Manca%NULL%1,                     Jessica%Cusato%NULL%1,                     Amedeo%De Nicolò%NULL%2,                     Amedeo%De Nicolò%NULL%0,                     Renzo%Lucchini%NULL%1,                     Franco%Keller%NULL%1,                     Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                     Simina%Stefanescu%NULL%1,                     Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                      Daniel F.%Mackay%null%1,                      Frederick%Ho%null%1,                      Carlos A.%Celis-Morales%null%1,                      Srinivasa Vittal%Katikireddi%null%1,                      Claire L.%Niedzwiedz%null%1,                      Bhautesh D.%Jani%null%1,                      Paul%Welsh%null%1,                      Frances S.%Mair%null%1,                      Stuart R.%Gray%null%1,                      Catherine A.%O’Donnell%null%1,                      Jason MR.%Gill%null%1,                      Naveed%Sattar%null%1,                      Jill P.%Pell%null%1,                    Claire E.%Hastie%null%1,                    Daniel F.%Mackay%null%1,                    Frederick%Ho%null%1,                    Carlos A.%Celis-Morales%null%1,                    Srinivasa Vittal%Katikireddi%null%1,                    Claire L.%Niedzwiedz%null%1,                    Bhautesh D.%Jani%null%1,                    Paul%Welsh%null%0,                    Frances S.%Mair%null%0,                    Stuart R.%Gray%null%1,                    Catherine A.%O’Donnell%null%0,                    Jason MR.%Gill%null%1,                    Naveed%Sattar%null%0,                    Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                      Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                      Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                      Michela%Barichella%NULL%2,                      Michela%Barichella%NULL%0,                      Erica%Cassani%NULL%1,                      Valentina%Ferri%NULL%1,                      Anna Lena%Zecchinelli%NULL%1,                      Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                      Valeria%Avataneo%NULL%2,                      Valeria%Avataneo%NULL%0,                      Alessandra%Manca%NULL%1,                      Jessica%Cusato%NULL%1,                      Amedeo%De Nicolò%NULL%2,                      Amedeo%De Nicolò%NULL%0,                      Renzo%Lucchini%NULL%1,                      Franco%Keller%NULL%1,                      Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                      Simina%Stefanescu%NULL%1,                      Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                       Daniel F.%Mackay%null%1,                       Frederick%Ho%null%1,                       Carlos A.%Celis-Morales%null%1,                       Srinivasa Vittal%Katikireddi%null%1,                       Claire L.%Niedzwiedz%null%1,                       Bhautesh D.%Jani%null%1,                       Paul%Welsh%null%1,                       Frances S.%Mair%null%1,                       Stuart R.%Gray%null%1,                       Catherine A.%O’Donnell%null%1,                       Jason MR.%Gill%null%1,                       Naveed%Sattar%null%1,                       Jill P.%Pell%null%1,                     Claire E.%Hastie%null%1,                     Daniel F.%Mackay%null%1,                     Frederick%Ho%null%1,                     Carlos A.%Celis-Morales%null%1,                     Srinivasa Vittal%Katikireddi%null%1,                     Claire L.%Niedzwiedz%null%1,                     Bhautesh D.%Jani%null%1,                     Paul%Welsh%null%0,                     Frances S.%Mair%null%0,                     Stuart R.%Gray%null%1,                     Catherine A.%O’Donnell%null%0,                     Jason MR.%Gill%null%1,                     Naveed%Sattar%null%0,                     Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                       Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                       Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                       Michela%Barichella%NULL%2,                       Michela%Barichella%NULL%0,                       Erica%Cassani%NULL%1,                       Valentina%Ferri%NULL%1,                       Anna Lena%Zecchinelli%NULL%1,                       Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                       Valeria%Avataneo%NULL%2,                       Valeria%Avataneo%NULL%0,                       Alessandra%Manca%NULL%1,                       Jessica%Cusato%NULL%1,                       Amedeo%De Nicolò%NULL%2,                       Amedeo%De Nicolò%NULL%0,                       Renzo%Lucchini%NULL%1,                       Franco%Keller%NULL%1,                       Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                       Simina%Stefanescu%NULL%1,                       Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                        Daniel F.%Mackay%null%1,                        Frederick%Ho%null%1,                        Carlos A.%Celis-Morales%null%1,                        Srinivasa Vittal%Katikireddi%null%1,                        Claire L.%Niedzwiedz%null%1,                        Bhautesh D.%Jani%null%1,                        Paul%Welsh%null%1,                        Frances S.%Mair%null%1,                        Stuart R.%Gray%null%1,                        Catherine A.%O’Donnell%null%1,                        Jason MR.%Gill%null%1,                        Naveed%Sattar%null%1,                        Jill P.%Pell%null%1,                      Claire E.%Hastie%null%1,                      Daniel F.%Mackay%null%1,                      Frederick%Ho%null%1,                      Carlos A.%Celis-Morales%null%1,                      Srinivasa Vittal%Katikireddi%null%1,                      Claire L.%Niedzwiedz%null%1,                      Bhautesh D.%Jani%null%1,                      Paul%Welsh%null%0,                      Frances S.%Mair%null%0,                      Stuart R.%Gray%null%1,                      Catherine A.%O’Donnell%null%0,                      Jason MR.%Gill%null%1,                      Naveed%Sattar%null%0,                      Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                        Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                        Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                        Michela%Barichella%NULL%2,                        Michela%Barichella%NULL%0,                        Erica%Cassani%NULL%1,                        Valentina%Ferri%NULL%1,                        Anna Lena%Zecchinelli%NULL%1,                        Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                        Valeria%Avataneo%NULL%2,                        Valeria%Avataneo%NULL%0,                        Alessandra%Manca%NULL%1,                        Jessica%Cusato%NULL%1,                        Amedeo%De Nicolò%NULL%2,                        Amedeo%De Nicolò%NULL%0,                        Renzo%Lucchini%NULL%1,                        Franco%Keller%NULL%1,                        Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                        Simina%Stefanescu%NULL%1,                        Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                         Daniel F.%Mackay%null%1,                         Frederick%Ho%null%1,                         Carlos A.%Celis-Morales%null%1,                         Srinivasa Vittal%Katikireddi%null%1,                         Claire L.%Niedzwiedz%null%1,                         Bhautesh D.%Jani%null%1,                         Paul%Welsh%null%1,                         Frances S.%Mair%null%1,                         Stuart R.%Gray%null%1,                         Catherine A.%O’Donnell%null%1,                         Jason MR.%Gill%null%1,                         Naveed%Sattar%null%1,                         Jill P.%Pell%null%1,                       Claire E.%Hastie%null%1,                       Daniel F.%Mackay%null%1,                       Frederick%Ho%null%1,                       Carlos A.%Celis-Morales%null%1,                       Srinivasa Vittal%Katikireddi%null%1,                       Claire L.%Niedzwiedz%null%1,                       Bhautesh D.%Jani%null%1,                       Paul%Welsh%null%0,                       Frances S.%Mair%null%0,                       Stuart R.%Gray%null%1,                       Catherine A.%O’Donnell%null%0,                       Jason MR.%Gill%null%1,                       Naveed%Sattar%null%0,                       Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                         Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                         Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                         Michela%Barichella%NULL%2,                         Michela%Barichella%NULL%0,                         Erica%Cassani%NULL%1,                         Valentina%Ferri%NULL%1,                         Anna Lena%Zecchinelli%NULL%1,                         Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                         Valeria%Avataneo%NULL%2,                         Valeria%Avataneo%NULL%0,                         Alessandra%Manca%NULL%1,                         Jessica%Cusato%NULL%1,                         Amedeo%De Nicolò%NULL%2,                         Amedeo%De Nicolò%NULL%0,                         Renzo%Lucchini%NULL%1,                         Franco%Keller%NULL%1,                         Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                         Simina%Stefanescu%NULL%1,                         Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                          Daniel F.%Mackay%null%1,                          Frederick%Ho%null%1,                          Carlos A.%Celis-Morales%null%1,                          Srinivasa Vittal%Katikireddi%null%1,                          Claire L.%Niedzwiedz%null%1,                          Bhautesh D.%Jani%null%1,                          Paul%Welsh%null%1,                          Frances S.%Mair%null%1,                          Stuart R.%Gray%null%1,                          Catherine A.%O’Donnell%null%1,                          Jason MR.%Gill%null%1,                          Naveed%Sattar%null%1,                          Jill P.%Pell%null%1,                        Claire E.%Hastie%null%1,                        Daniel F.%Mackay%null%1,                        Frederick%Ho%null%1,                        Carlos A.%Celis-Morales%null%1,                        Srinivasa Vittal%Katikireddi%null%1,                        Claire L.%Niedzwiedz%null%1,                        Bhautesh D.%Jani%null%1,                        Paul%Welsh%null%0,                        Frances S.%Mair%null%0,                        Stuart R.%Gray%null%1,                        Catherine A.%O’Donnell%null%0,                        Jason MR.%Gill%null%1,                        Naveed%Sattar%null%0,                        Jill P.%Pell%null%0]</t>
   </si>
 </sst>
 </file>
@@ -764,6 +827,9 @@
       <c r="I1" t="s">
         <v>44</v>
       </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -779,7 +845,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -792,6 +858,9 @@
       </c>
       <c r="I2" t="s">
         <v>114</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -808,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -821,6 +890,9 @@
       </c>
       <c r="I3" t="s">
         <v>114</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -837,7 +909,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -850,6 +922,9 @@
       </c>
       <c r="I4" t="s">
         <v>117</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -866,7 +941,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -879,6 +954,9 @@
       </c>
       <c r="I5" t="s">
         <v>119</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/55.xlsx
+++ b/Covid_19_Dataset_and_References/References/55.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="153">
   <si>
     <t>Doi</t>
   </si>
@@ -488,6 +488,30 @@
   </si>
   <si>
     <t>[ Claire E.%Hastie%null%1,                          Daniel F.%Mackay%null%1,                          Frederick%Ho%null%1,                          Carlos A.%Celis-Morales%null%1,                          Srinivasa Vittal%Katikireddi%null%1,                          Claire L.%Niedzwiedz%null%1,                          Bhautesh D.%Jani%null%1,                          Paul%Welsh%null%1,                          Frances S.%Mair%null%1,                          Stuart R.%Gray%null%1,                          Catherine A.%O’Donnell%null%1,                          Jason MR.%Gill%null%1,                          Naveed%Sattar%null%1,                          Jill P.%Pell%null%1,                        Claire E.%Hastie%null%1,                        Daniel F.%Mackay%null%1,                        Frederick%Ho%null%1,                        Carlos A.%Celis-Morales%null%1,                        Srinivasa Vittal%Katikireddi%null%1,                        Claire L.%Niedzwiedz%null%1,                        Bhautesh D.%Jani%null%1,                        Paul%Welsh%null%0,                        Frances S.%Mair%null%0,                        Stuart R.%Gray%null%1,                        Catherine A.%O’Donnell%null%0,                        Jason MR.%Gill%null%1,                        Naveed%Sattar%null%0,                        Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                          Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                          Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                          Michela%Barichella%NULL%2,                          Michela%Barichella%NULL%0,                          Erica%Cassani%NULL%1,                          Valentina%Ferri%NULL%1,                          Anna Lena%Zecchinelli%NULL%1,                          Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                          Valeria%Avataneo%NULL%2,                          Valeria%Avataneo%NULL%0,                          Alessandra%Manca%NULL%1,                          Jessica%Cusato%NULL%1,                          Amedeo%De Nicolò%NULL%2,                          Amedeo%De Nicolò%NULL%0,                          Renzo%Lucchini%NULL%1,                          Franco%Keller%NULL%1,                          Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                          Simina%Stefanescu%NULL%1,                          Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                           Daniel F.%Mackay%null%1,                           Frederick%Ho%null%1,                           Carlos A.%Celis-Morales%null%1,                           Srinivasa Vittal%Katikireddi%null%1,                           Claire L.%Niedzwiedz%null%1,                           Bhautesh D.%Jani%null%1,                           Paul%Welsh%null%1,                           Frances S.%Mair%null%1,                           Stuart R.%Gray%null%1,                           Catherine A.%O’Donnell%null%1,                           Jason MR.%Gill%null%1,                           Naveed%Sattar%null%1,                           Jill P.%Pell%null%1,                         Claire E.%Hastie%null%1,                         Daniel F.%Mackay%null%1,                         Frederick%Ho%null%1,                         Carlos A.%Celis-Morales%null%1,                         Srinivasa Vittal%Katikireddi%null%1,                         Claire L.%Niedzwiedz%null%1,                         Bhautesh D.%Jani%null%1,                         Paul%Welsh%null%0,                         Frances S.%Mair%null%0,                         Stuart R.%Gray%null%1,                         Catherine A.%O’Donnell%null%0,                         Jason MR.%Gill%null%1,                         Naveed%Sattar%null%0,                         Jill P.%Pell%null%0]</t>
+  </si>
+  <si>
+    <t>[Alfonso%Fasano%NULL%1,                           Emanuele%Cereda%e.cereda@smatteo.pv.it%2,                           Emanuele%Cereda%e.cereda@smatteo.pv.it%0,                           Michela%Barichella%NULL%2,                           Michela%Barichella%NULL%0,                           Erica%Cassani%NULL%1,                           Valentina%Ferri%NULL%1,                           Anna Lena%Zecchinelli%NULL%1,                           Gianni%Pezzoli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonio%D’Avolio%NULL%1,                           Valeria%Avataneo%NULL%2,                           Valeria%Avataneo%NULL%0,                           Alessandra%Manca%NULL%1,                           Jessica%Cusato%NULL%1,                           Amedeo%De Nicolò%NULL%2,                           Amedeo%De Nicolò%NULL%0,                           Renzo%Lucchini%NULL%1,                           Franco%Keller%NULL%1,                           Marco%Cantù%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Petre Cristian%Ilie%dr.cristianilie@gmail.com%1,                           Simina%Stefanescu%NULL%1,                           Lee%Smith%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Claire E.%Hastie%null%1,                            Daniel F.%Mackay%null%1,                            Frederick%Ho%null%1,                            Carlos A.%Celis-Morales%null%1,                            Srinivasa Vittal%Katikireddi%null%1,                            Claire L.%Niedzwiedz%null%1,                            Bhautesh D.%Jani%null%1,                            Paul%Welsh%null%1,                            Frances S.%Mair%null%1,                            Stuart R.%Gray%null%1,                            Catherine A.%O’Donnell%null%1,                            Jason MR.%Gill%null%1,                            Naveed%Sattar%null%1,                            Jill P.%Pell%null%1,                          Claire E.%Hastie%null%1,                          Daniel F.%Mackay%null%1,                          Frederick%Ho%null%1,                          Carlos A.%Celis-Morales%null%1,                          Srinivasa Vittal%Katikireddi%null%1,                          Claire L.%Niedzwiedz%null%1,                          Bhautesh D.%Jani%null%1,                          Paul%Welsh%null%0,                          Frances S.%Mair%null%0,                          Stuart R.%Gray%null%1,                          Catherine A.%O’Donnell%null%0,                          Jason MR.%Gill%null%1,                          Naveed%Sattar%null%0,                          Jill P.%Pell%null%0]</t>
   </si>
 </sst>
 </file>
@@ -845,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -877,7 +901,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -909,7 +933,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -941,7 +965,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
